--- a/biology/Botanique/Virectaria/Virectaria.xlsx
+++ b/biology/Botanique/Virectaria/Virectaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Virectaria est un genre de plantes de la famille des Rubiaceae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Liste des variétés, sous-espèces et espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (30 octobre 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (30 octobre 2017) :
 Virectaria angustifolia (Hiern) Bremek.
 Virectaria belingana N.Hallé
 Virectaria herbacoursi N.Hallé
@@ -548,7 +564,7 @@
 Virectaria procumbens (Sm.) Bremek.
 Virectaria salicoides (C.H.Wright) Bremek.
 Virectaria tenella J.B.Hall
-Selon NCBI  (30 octobre 2017)[3] :
+Selon NCBI  (30 octobre 2017) :
 Virectaria angustifolia
 Virectaria belingana
 Virectaria herbacoursi
@@ -558,7 +574,7 @@
 sous-espèce Virectaria major subsp. spathulata
 Virectaria multiflora
 Virectaria procumbens
-Selon The Plant List            (30 octobre 2017)[4] :
+Selon The Plant List            (30 octobre 2017) :
 Virectaria angustifolia (Hiern) Bremek.
 Virectaria belingana N.Hallé
 Virectaria herbacoursi N.Hallé
@@ -567,7 +583,7 @@
 Virectaria procumbens (Sm.) Bremek.
 Virectaria salicoides (C.H.Wright) Bremek.
 Virectaria tenella J.B.Hall
-Selon Tropicos                                           (30 octobre 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (30 octobre 2017) (Attention liste brute contenant possiblement des synonymes) :
 Virectaria angustifolia (Hiern) Bremek.
 Virectaria belingana N. Hallé
 Virectaria herbacoursi N. Hallé
